--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H2">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I2">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J2">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>744.876560498816</v>
+        <v>658.1054191340806</v>
       </c>
       <c r="R2">
-        <v>6703.889044489345</v>
+        <v>5922.948772206726</v>
       </c>
       <c r="S2">
-        <v>0.007302836147748995</v>
+        <v>0.006808949090969691</v>
       </c>
       <c r="T2">
-        <v>0.007302836147748996</v>
+        <v>0.006808949090969693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H3">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I3">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J3">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>3031.956284068907</v>
+        <v>4082.008532024285</v>
       </c>
       <c r="R3">
-        <v>27287.60655662016</v>
+        <v>36738.07678821857</v>
       </c>
       <c r="S3">
-        <v>0.02972556947538467</v>
+        <v>0.04223364141269069</v>
       </c>
       <c r="T3">
-        <v>0.02972556947538468</v>
+        <v>0.04223364141269071</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H4">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I4">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J4">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>995.5986037877191</v>
+        <v>1634.560420350997</v>
       </c>
       <c r="R4">
-        <v>8960.387434089471</v>
+        <v>14711.04378315897</v>
       </c>
       <c r="S4">
-        <v>0.00976093739279495</v>
+        <v>0.01691163507349334</v>
       </c>
       <c r="T4">
-        <v>0.009760937392794952</v>
+        <v>0.01691163507349335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H5">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I5">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J5">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>3528.802725345708</v>
+        <v>3883.944082146209</v>
       </c>
       <c r="R5">
-        <v>31759.22452811136</v>
+        <v>34955.49673931588</v>
       </c>
       <c r="S5">
-        <v>0.03459669624141806</v>
+        <v>0.04018440930376017</v>
       </c>
       <c r="T5">
-        <v>0.03459669624141806</v>
+        <v>0.04018440930376018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H6">
         <v>1792.124268</v>
       </c>
       <c r="I6">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J6">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>8029.474789205363</v>
+        <v>5269.232048512051</v>
       </c>
       <c r="R6">
-        <v>72265.27310284827</v>
+        <v>47423.08843660846</v>
       </c>
       <c r="S6">
-        <v>0.07872168604524289</v>
+        <v>0.05451699944065468</v>
       </c>
       <c r="T6">
-        <v>0.07872168604524289</v>
+        <v>0.05451699944065469</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H7">
         <v>1792.124268</v>
       </c>
       <c r="I7">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J7">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>32683.28987101046</v>
@@ -883,10 +883,10 @@
         <v>294149.6088390941</v>
       </c>
       <c r="S7">
-        <v>0.3204298851041012</v>
+        <v>0.3381507740050627</v>
       </c>
       <c r="T7">
-        <v>0.3204298851041013</v>
+        <v>0.3381507740050628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H8">
         <v>1792.124268</v>
       </c>
       <c r="I8">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J8">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>10732.15927740856</v>
+        <v>13087.38372565815</v>
       </c>
       <c r="R8">
-        <v>96589.43349667707</v>
+        <v>117786.4535309233</v>
       </c>
       <c r="S8">
-        <v>0.1052190455046324</v>
+        <v>0.1354058588960445</v>
       </c>
       <c r="T8">
-        <v>0.1052190455046324</v>
+        <v>0.1354058588960446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H9">
         <v>1792.124268</v>
       </c>
       <c r="I9">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J9">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>38039.09804903516</v>
+        <v>31097.4534432514</v>
       </c>
       <c r="R9">
-        <v>342351.8824413164</v>
+        <v>279877.0809892626</v>
       </c>
       <c r="S9">
-        <v>0.3729387055410018</v>
+        <v>0.3217432514573464</v>
       </c>
       <c r="T9">
-        <v>0.3729387055410019</v>
+        <v>0.3217432514573466</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H10">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I10">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J10">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>375.40084346716</v>
+        <v>268.89196515532</v>
       </c>
       <c r="R10">
-        <v>3378.607591204441</v>
+        <v>2420.02768639788</v>
       </c>
       <c r="S10">
-        <v>0.003680463307546642</v>
+        <v>0.002782034076124745</v>
       </c>
       <c r="T10">
-        <v>0.003680463307546642</v>
+        <v>0.002782034076124745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H11">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I11">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J11">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>1528.037002040733</v>
+        <v>1667.8472233233</v>
       </c>
       <c r="R11">
-        <v>13752.3330183666</v>
+        <v>15010.6250099097</v>
       </c>
       <c r="S11">
-        <v>0.01498101087531645</v>
+        <v>0.01725602996867255</v>
       </c>
       <c r="T11">
-        <v>0.01498101087531645</v>
+        <v>0.01725602996867255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H12">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I12">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J12">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>501.7590503403022</v>
+        <v>667.8567761554</v>
       </c>
       <c r="R12">
-        <v>4515.83145306272</v>
+        <v>6010.710985398599</v>
       </c>
       <c r="S12">
-        <v>0.004919290422874288</v>
+        <v>0.006909839452294167</v>
       </c>
       <c r="T12">
-        <v>0.004919290422874289</v>
+        <v>0.006909839452294167</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H13">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I13">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J13">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>1778.436307133734</v>
+        <v>1586.92107136242</v>
       </c>
       <c r="R13">
-        <v>16005.9267642036</v>
+        <v>14282.28964226178</v>
       </c>
       <c r="S13">
-        <v>0.01743594796634241</v>
+        <v>0.0164187445842812</v>
       </c>
       <c r="T13">
-        <v>0.01743594796634242</v>
+        <v>0.0164187445842812</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H14">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I14">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J14">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>2.635210072103</v>
+        <v>4.202859101170889</v>
       </c>
       <c r="R14">
-        <v>23.716890648927</v>
+        <v>37.825731910538</v>
       </c>
       <c r="S14">
-        <v>2.583583427377375E-05</v>
+        <v>4.348399636952519E-05</v>
       </c>
       <c r="T14">
-        <v>2.583583427377376E-05</v>
+        <v>4.348399636952519E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H15">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I15">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J15">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>10.72639704571167</v>
+        <v>26.06893395962166</v>
       </c>
       <c r="R15">
-        <v>96.53757341140499</v>
+        <v>234.620405636595</v>
       </c>
       <c r="S15">
-        <v>0.0001051625520718149</v>
+        <v>0.0002697167338638052</v>
       </c>
       <c r="T15">
-        <v>0.000105162552071815</v>
+        <v>0.0002697167338638053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H16">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I16">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J16">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>3.522209729241777</v>
+        <v>10.43879436234556</v>
       </c>
       <c r="R16">
-        <v>31.69988756317599</v>
+        <v>93.94914926110999</v>
       </c>
       <c r="S16">
-        <v>3.453205792035515E-05</v>
+        <v>0.000108002786966614</v>
       </c>
       <c r="T16">
-        <v>3.453205792035516E-05</v>
+        <v>0.000108002786966614</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H17">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I17">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J17">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>12.48413089823667</v>
+        <v>24.80403482403366</v>
       </c>
       <c r="R17">
-        <v>112.35717808413</v>
+        <v>223.2363134163029</v>
       </c>
       <c r="S17">
-        <v>0.0001223955313291373</v>
+        <v>0.0002566297214049767</v>
       </c>
       <c r="T17">
-        <v>0.0001223955313291373</v>
+        <v>0.0002566297214049768</v>
       </c>
     </row>
   </sheetData>
